--- a/paraglider unity/text_9681.xlsx
+++ b/paraglider unity/text_9681.xlsx
@@ -1,18 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-15" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="45760" windowHeight="28360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Monitortext" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Monitortext!$A$1:$G$63</definedName>
-  </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -111,9 +108,6 @@
     <t>Nutze die Winde, um auf- oder abzusteigen.</t>
   </si>
   <si>
-    <t>Welt [Zahl] / 4</t>
-  </si>
-  <si>
     <t>0404.MT.0300.L.01</t>
   </si>
   <si>
@@ -132,24 +126,9 @@
     <t>Anzeige Steig-/Sinkgeschwindigkeit</t>
   </si>
   <si>
-    <t>[Höhe] m</t>
-  </si>
-  <si>
-    <t>[Geschwindigkeit] km/h</t>
-  </si>
-  <si>
     <t>m/sek</t>
   </si>
   <si>
-    <t>[Höhe] ft</t>
-  </si>
-  <si>
-    <t>[Geschwindigkeit] mph</t>
-  </si>
-  <si>
-    <t>ft/min x 100</t>
-  </si>
-  <si>
     <t>0404.MT.0400.HL2</t>
   </si>
   <si>
@@ -255,6 +234,12 @@
     <t>0404.MT.0800.HL3</t>
   </si>
   <si>
+    <t>Das Spiel ist vorbei!</t>
+  </si>
+  <si>
+    <t>Du hast es leider nicht bis zum Ziel geschafft.</t>
+  </si>
+  <si>
     <t>0404.MT.0800.HL2</t>
   </si>
   <si>
@@ -273,25 +258,34 @@
     <t>Möchtest du das Spiel wirklich beenden?</t>
   </si>
   <si>
-    <t>Das Spiel wird in [Zahl] Sekunden automatisch beendet.</t>
-  </si>
-  <si>
     <t>0404.MT.1100.DF.HL3</t>
   </si>
   <si>
     <t>0404.MT.1100.DF.C</t>
   </si>
   <si>
+    <t>Kein Wind! Wir haben eine Flaute.</t>
+  </si>
+  <si>
     <t>Zeit, jemand anderen spielen zu lassen.</t>
   </si>
   <si>
     <t>–</t>
   </si>
   <si>
+    <t>I can fly!</t>
+  </si>
+  <si>
+    <t>Do you really want to end the game?</t>
+  </si>
+  <si>
+    <t>Das Spiel wird in {{sec}} Sekunden automatisch beendet.</t>
+  </si>
+  <si>
     <t>Luftparcours</t>
   </si>
   <si>
-    <t>I can fly!</t>
+    <t>Wie gut kannst du diesen Paraglider auf seinem Flug steuern?</t>
   </si>
   <si>
     <t>Du hast drei Minuten Zeit, um vier Welten zu durchfliegen. Ziehe die Reißleine, um zu beginnen.</t>
@@ -303,89 +297,80 @@
     <t>Ziehe gleichzeitig an beiden Steuergriffen, um zu landen.</t>
   </si>
   <si>
+    <t>Gut Gemacht! Du hast es geschafft.</t>
+  </si>
+  <si>
     <t>Du hast das Ziel innerhalb von [Zeit] min erreicht.</t>
   </si>
   <si>
+    <t>Ziehe die Reißleine, um das Spiel neu zu starten.</t>
+  </si>
+  <si>
     <t>Ziehe die Reißleine, um neu zu starten.</t>
   </si>
   <si>
-    <t>Das Spiel ist vorbei.</t>
-  </si>
-  <si>
-    <t>Kein Wind. Wir haben eine Flaute.</t>
-  </si>
-  <si>
     <t>Ziehe die Reißleine, um das Spiel zu beenden. Nutze die Steuergriffe, um weiterzuspielen.</t>
   </si>
   <si>
-    <t>Ziehe die Reißleine, um das Spiel neu zu starten.</t>
-  </si>
-  <si>
-    <t>Do you really want to end the game?</t>
+    <t>How well are you able to control the flight of this paraglider?</t>
+  </si>
+  <si>
+    <t>You have three minutes to fly through four worlds. Pull the rip cord to start.</t>
+  </si>
+  <si>
+    <t>Pull up on the control handles to take off.</t>
+  </si>
+  <si>
+    <t>Use the winds to climb or descend.</t>
+  </si>
+  <si>
+    <t>Pull on both control handles at the same time to land.</t>
+  </si>
+  <si>
+    <t>Very good! You made it.</t>
+  </si>
+  <si>
+    <t>You reached the destination in [time] minutes.</t>
+  </si>
+  <si>
+    <t>Pull the rip cord to start over.</t>
   </si>
   <si>
     <t xml:space="preserve">Game over. </t>
   </si>
   <si>
-    <t>You have three minutes to fly through four worlds. Pull the rip cord to start.</t>
-  </si>
-  <si>
-    <t>Use the winds to climb or descend.</t>
+    <t>You unfortunately didn't reach the destination.</t>
+  </si>
+  <si>
+    <t>No wind. You're in the doldrums.</t>
+  </si>
+  <si>
+    <t>It's time to let someone else have a try.</t>
+  </si>
+  <si>
+    <t>Pull the rip cord to end the game. Use the control handles to continue.</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>km/h</t>
   </si>
   <si>
     <t>World</t>
   </si>
   <si>
-    <t xml:space="preserve">World </t>
-  </si>
-  <si>
-    <t>Pull on both control handles at the same time to land.</t>
-  </si>
-  <si>
-    <t>Very good! You made it.</t>
-  </si>
-  <si>
-    <t>You reached the destination in [time] minutes.</t>
-  </si>
-  <si>
-    <t>You unfortunately didn't reach the destination.</t>
-  </si>
-  <si>
-    <t>Pull the rip cord to start over.</t>
-  </si>
-  <si>
-    <t>Pull the rip cord to end the game. Use the control handles to continue.</t>
-  </si>
-  <si>
-    <t>Gut Gemacht! Du hast es geschafft.</t>
-  </si>
-  <si>
-    <t>Du hast es leider nicht bis zum Ziel geschafft.</t>
-  </si>
-  <si>
-    <t>Wie gut kannst du diesen Paraglider auf seinem Flug steuern?</t>
-  </si>
-  <si>
-    <t>Pull up on the control handles to take off.</t>
-  </si>
-  <si>
-    <t>No wind. You're in the doldrums.</t>
-  </si>
-  <si>
-    <t>It's time to let someone else have a try.</t>
-  </si>
-  <si>
-    <t>The game will end automatically in [Zahl] seconds.</t>
-  </si>
-  <si>
-    <t>How well are you able to control the flight of this paraglider?</t>
+    <t>Welt</t>
+  </si>
+  <si>
+    <t>The game will end automatically in {{sec}} seconds.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -444,31 +429,17 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="8" tint="-0.249977111117893"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -497,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -592,8 +563,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="589">
+  <cellStyleXfs count="609">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1183,8 +1191,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1238,36 +1266,21 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1280,605 +1293,627 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="589">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="458" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="460" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="462" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="464" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="466" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="468" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="470" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="472" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="474" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="476" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="532" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="534" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="536" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="538" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="540" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="542" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="544" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="546" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="548" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="550" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="552" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="554" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="556" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="560" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="562" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="564" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="566" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="568" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="570" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="572" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="574" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="576" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="578" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="580" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="582" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="584" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="586" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="588" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+  <cellStyles count="609">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="607" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2204,82 +2239,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:AY200"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="94.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="94.5" style="30" customWidth="1"/>
-    <col min="4" max="5" width="11.875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="94.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="47.125" style="1" customWidth="1"/>
-    <col min="8" max="51" width="10.875" style="2"/>
-    <col min="52" max="16384" width="10.875" style="1"/>
+    <col min="7" max="7" width="47.1640625" style="1" customWidth="1"/>
+    <col min="8" max="51" width="10.83203125" style="2"/>
+    <col min="52" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51">
       <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="2" customFormat="1" ht="17">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="31"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="31"/>
+    <row r="3" spans="1:51" s="2" customFormat="1">
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:51" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" s="2" customFormat="1" ht="17">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="13"/>
-      <c r="C4" s="31"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="4"/>
       <c r="G4" s="13"/>
     </row>
-    <row r="5" spans="1:51" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" s="2" customFormat="1" ht="17">
       <c r="A5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="31"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:51" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" s="2" customFormat="1" ht="17">
       <c r="A6" s="3"/>
-      <c r="C6" s="31"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -2295,26 +2321,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:51">
+      <c r="A8" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:51">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>89</v>
+      <c r="B9" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="D9" s="11">
         <f>LEN(B9)</f>
@@ -2328,18 +2354,18 @@
         <v>15</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51">
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>118</v>
+      <c r="B10" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="D10" s="11">
         <f t="shared" ref="D10:D63" si="0">LEN(B10)</f>
@@ -2356,26 +2382,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:51">
+      <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="38"/>
+    </row>
+    <row r="12" spans="1:51">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>89</v>
+      <c r="B12" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
@@ -2392,15 +2418,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" s="15" customFormat="1">
       <c r="A13" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>101</v>
+      <c r="B13" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
@@ -2461,26 +2487,26 @@
       <c r="AX13" s="14"/>
       <c r="AY13" s="14"/>
     </row>
-    <row r="14" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:51">
+      <c r="A14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="1:51">
       <c r="A15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>114</v>
+      <c r="B15" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="D15" s="11">
         <f t="shared" si="0"/>
@@ -2497,250 +2523,250 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51">
       <c r="A16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51">
+      <c r="A17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
+      <c r="AB17" s="28"/>
+      <c r="AC17" s="28"/>
+      <c r="AD17" s="28"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="28"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="28"/>
+      <c r="AK17" s="28"/>
+      <c r="AL17" s="28"/>
+      <c r="AM17" s="28"/>
+      <c r="AN17" s="28"/>
+      <c r="AO17" s="28"/>
+      <c r="AP17" s="28"/>
+      <c r="AQ17" s="28"/>
+      <c r="AR17" s="28"/>
+      <c r="AS17" s="28"/>
+      <c r="AT17" s="28"/>
+      <c r="AU17" s="28"/>
+      <c r="AV17" s="28"/>
+      <c r="AW17" s="28"/>
+      <c r="AX17" s="28"/>
+      <c r="AY17" s="28"/>
+    </row>
+    <row r="18" spans="1:51">
+      <c r="A18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="28"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="28"/>
+      <c r="AX18" s="28"/>
+      <c r="AY18" s="28"/>
+    </row>
+    <row r="19" spans="1:51">
+      <c r="A19" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="28"/>
+      <c r="AD19" s="28"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="28"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="28"/>
+      <c r="AL19" s="28"/>
+      <c r="AM19" s="28"/>
+      <c r="AN19" s="28"/>
+      <c r="AO19" s="28"/>
+      <c r="AP19" s="28"/>
+      <c r="AQ19" s="28"/>
+      <c r="AR19" s="28"/>
+      <c r="AS19" s="28"/>
+      <c r="AT19" s="28"/>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="28"/>
+      <c r="AY19" s="28"/>
+    </row>
+    <row r="20" spans="1:51">
+      <c r="A20" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="40"/>
+    </row>
+    <row r="21" spans="1:51">
+      <c r="A21" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27"/>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27"/>
-      <c r="AI17" s="27"/>
-      <c r="AJ17" s="27"/>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27"/>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27"/>
-      <c r="AO17" s="27"/>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
-      <c r="AS17" s="27"/>
-      <c r="AT17" s="27"/>
-      <c r="AU17" s="27"/>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="27"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="27"/>
-    </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27"/>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27"/>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27"/>
-      <c r="AI18" s="27"/>
-      <c r="AJ18" s="27"/>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="27"/>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="27"/>
-      <c r="AO18" s="27"/>
-      <c r="AP18" s="27"/>
-      <c r="AQ18" s="27"/>
-      <c r="AR18" s="27"/>
-      <c r="AS18" s="27"/>
-      <c r="AT18" s="27"/>
-      <c r="AU18" s="27"/>
-      <c r="AV18" s="27"/>
-      <c r="AW18" s="27"/>
-      <c r="AX18" s="27"/>
-      <c r="AY18" s="27"/>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27"/>
-      <c r="AI19" s="27"/>
-      <c r="AJ19" s="27"/>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="27"/>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="27"/>
-      <c r="AO19" s="27"/>
-      <c r="AP19" s="27"/>
-      <c r="AQ19" s="27"/>
-      <c r="AR19" s="27"/>
-      <c r="AS19" s="27"/>
-      <c r="AT19" s="27"/>
-      <c r="AU19" s="27"/>
-      <c r="AV19" s="27"/>
-      <c r="AW19" s="27"/>
-      <c r="AX19" s="27"/>
-      <c r="AY19" s="27"/>
-    </row>
-    <row r="20" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>102</v>
+      <c r="C21" s="30" t="s">
+        <v>100</v>
       </c>
       <c r="D21" s="11">
         <f t="shared" si="0"/>
@@ -2757,945 +2783,945 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:51">
       <c r="A22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51">
+      <c r="A23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="28"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+      <c r="X23" s="28"/>
+      <c r="Y23" s="28"/>
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="28"/>
+      <c r="AL23" s="28"/>
+      <c r="AM23" s="28"/>
+      <c r="AN23" s="28"/>
+      <c r="AO23" s="28"/>
+      <c r="AP23" s="28"/>
+      <c r="AQ23" s="28"/>
+      <c r="AR23" s="28"/>
+      <c r="AS23" s="28"/>
+      <c r="AT23" s="28"/>
+      <c r="AU23" s="28"/>
+      <c r="AV23" s="28"/>
+      <c r="AW23" s="28"/>
+      <c r="AX23" s="28"/>
+      <c r="AY23" s="28"/>
+    </row>
+    <row r="24" spans="1:51">
+      <c r="A24" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G24" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="28"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="28"/>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="28"/>
+      <c r="AM24" s="28"/>
+      <c r="AN24" s="28"/>
+      <c r="AO24" s="28"/>
+      <c r="AP24" s="28"/>
+      <c r="AQ24" s="28"/>
+      <c r="AR24" s="28"/>
+      <c r="AS24" s="28"/>
+      <c r="AT24" s="28"/>
+      <c r="AU24" s="28"/>
+      <c r="AV24" s="28"/>
+      <c r="AW24" s="28"/>
+      <c r="AX24" s="28"/>
+      <c r="AY24" s="28"/>
+    </row>
+    <row r="25" spans="1:51">
+      <c r="A25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="28"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="28"/>
+      <c r="W25" s="28"/>
+      <c r="X25" s="28"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="28"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="28"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="28"/>
+      <c r="AL25" s="28"/>
+      <c r="AM25" s="28"/>
+      <c r="AN25" s="28"/>
+      <c r="AO25" s="28"/>
+      <c r="AP25" s="28"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
+    </row>
+    <row r="26" spans="1:51">
+      <c r="A26" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:51">
+      <c r="A27" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="B27" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51">
+      <c r="A28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="26" t="s">
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="28"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="28"/>
+      <c r="AK28" s="28"/>
+      <c r="AL28" s="28"/>
+      <c r="AM28" s="28"/>
+      <c r="AN28" s="28"/>
+      <c r="AO28" s="28"/>
+      <c r="AP28" s="28"/>
+      <c r="AQ28" s="28"/>
+      <c r="AR28" s="28"/>
+      <c r="AS28" s="28"/>
+      <c r="AT28" s="28"/>
+      <c r="AU28" s="28"/>
+      <c r="AV28" s="28"/>
+      <c r="AW28" s="28"/>
+      <c r="AX28" s="28"/>
+      <c r="AY28" s="28"/>
+    </row>
+    <row r="29" spans="1:51">
+      <c r="A29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="28"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="28"/>
+      <c r="AK29" s="28"/>
+      <c r="AL29" s="28"/>
+      <c r="AM29" s="28"/>
+      <c r="AN29" s="28"/>
+      <c r="AO29" s="28"/>
+      <c r="AP29" s="28"/>
+      <c r="AQ29" s="28"/>
+      <c r="AR29" s="28"/>
+      <c r="AS29" s="28"/>
+      <c r="AT29" s="28"/>
+      <c r="AU29" s="28"/>
+      <c r="AV29" s="28"/>
+      <c r="AW29" s="28"/>
+      <c r="AX29" s="28"/>
+      <c r="AY29" s="28"/>
+    </row>
+    <row r="30" spans="1:51">
+      <c r="A30" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="26" t="s">
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="28"/>
+      <c r="X30" s="28"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="28"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="28"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="28"/>
+      <c r="AL30" s="28"/>
+      <c r="AM30" s="28"/>
+      <c r="AN30" s="28"/>
+      <c r="AO30" s="28"/>
+      <c r="AP30" s="28"/>
+      <c r="AQ30" s="28"/>
+      <c r="AR30" s="28"/>
+      <c r="AS30" s="28"/>
+      <c r="AT30" s="28"/>
+      <c r="AU30" s="28"/>
+      <c r="AV30" s="28"/>
+      <c r="AW30" s="28"/>
+      <c r="AX30" s="28"/>
+      <c r="AY30" s="28"/>
+    </row>
+    <row r="31" spans="1:51">
+      <c r="A31" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="1:51">
+      <c r="A32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51">
+      <c r="A33" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="28"/>
+      <c r="AH33" s="28"/>
+      <c r="AI33" s="28"/>
+      <c r="AJ33" s="28"/>
+      <c r="AK33" s="28"/>
+      <c r="AL33" s="28"/>
+      <c r="AM33" s="28"/>
+      <c r="AN33" s="28"/>
+      <c r="AO33" s="28"/>
+      <c r="AP33" s="28"/>
+      <c r="AQ33" s="28"/>
+      <c r="AR33" s="28"/>
+      <c r="AS33" s="28"/>
+      <c r="AT33" s="28"/>
+      <c r="AU33" s="28"/>
+      <c r="AV33" s="28"/>
+      <c r="AW33" s="28"/>
+      <c r="AX33" s="28"/>
+      <c r="AY33" s="28"/>
+    </row>
+    <row r="34" spans="1:51">
+      <c r="A34" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
-      <c r="X23" s="27"/>
-      <c r="Y23" s="27"/>
-      <c r="Z23" s="27"/>
-      <c r="AA23" s="27"/>
-      <c r="AB23" s="27"/>
-      <c r="AC23" s="27"/>
-      <c r="AD23" s="27"/>
-      <c r="AE23" s="27"/>
-      <c r="AF23" s="27"/>
-      <c r="AG23" s="27"/>
-      <c r="AH23" s="27"/>
-      <c r="AI23" s="27"/>
-      <c r="AJ23" s="27"/>
-      <c r="AK23" s="27"/>
-      <c r="AL23" s="27"/>
-      <c r="AM23" s="27"/>
-      <c r="AN23" s="27"/>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="27"/>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="27"/>
-      <c r="AS23" s="27"/>
-      <c r="AT23" s="27"/>
-      <c r="AU23" s="27"/>
-      <c r="AV23" s="27"/>
-      <c r="AW23" s="27"/>
-      <c r="AX23" s="27"/>
-      <c r="AY23" s="27"/>
-    </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="26" t="s">
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="28"/>
+      <c r="AM34" s="28"/>
+      <c r="AN34" s="28"/>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="28"/>
+      <c r="AR34" s="28"/>
+      <c r="AS34" s="28"/>
+      <c r="AT34" s="28"/>
+      <c r="AU34" s="28"/>
+      <c r="AV34" s="28"/>
+      <c r="AW34" s="28"/>
+      <c r="AX34" s="28"/>
+      <c r="AY34" s="28"/>
+    </row>
+    <row r="35" spans="1:51">
+      <c r="A35" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G35" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="28"/>
+      <c r="AH35" s="28"/>
+      <c r="AI35" s="28"/>
+      <c r="AJ35" s="28"/>
+      <c r="AK35" s="28"/>
+      <c r="AL35" s="28"/>
+      <c r="AM35" s="28"/>
+      <c r="AN35" s="28"/>
+      <c r="AO35" s="28"/>
+      <c r="AP35" s="28"/>
+      <c r="AQ35" s="28"/>
+      <c r="AR35" s="28"/>
+      <c r="AS35" s="28"/>
+      <c r="AT35" s="28"/>
+      <c r="AU35" s="28"/>
+      <c r="AV35" s="28"/>
+      <c r="AW35" s="28"/>
+      <c r="AX35" s="28"/>
+      <c r="AY35" s="28"/>
+    </row>
+    <row r="36" spans="1:51">
+      <c r="A36" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="40"/>
+    </row>
+    <row r="37" spans="1:51">
+      <c r="A37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:51">
+      <c r="A38" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="28"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="28"/>
+      <c r="U38" s="28"/>
+      <c r="V38" s="28"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="28"/>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="28"/>
+      <c r="AM38" s="28"/>
+      <c r="AN38" s="28"/>
+      <c r="AO38" s="28"/>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="28"/>
+      <c r="AR38" s="28"/>
+      <c r="AS38" s="28"/>
+      <c r="AT38" s="28"/>
+      <c r="AU38" s="28"/>
+      <c r="AV38" s="28"/>
+      <c r="AW38" s="28"/>
+      <c r="AX38" s="28"/>
+      <c r="AY38" s="28"/>
+    </row>
+    <row r="39" spans="1:51">
+      <c r="A39" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
-      <c r="X24" s="27"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="27"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="27"/>
-      <c r="AC24" s="27"/>
-      <c r="AD24" s="27"/>
-      <c r="AE24" s="27"/>
-      <c r="AF24" s="27"/>
-      <c r="AG24" s="27"/>
-      <c r="AH24" s="27"/>
-      <c r="AI24" s="27"/>
-      <c r="AJ24" s="27"/>
-      <c r="AK24" s="27"/>
-      <c r="AL24" s="27"/>
-      <c r="AM24" s="27"/>
-      <c r="AN24" s="27"/>
-      <c r="AO24" s="27"/>
-      <c r="AP24" s="27"/>
-      <c r="AQ24" s="27"/>
-      <c r="AR24" s="27"/>
-      <c r="AS24" s="27"/>
-      <c r="AT24" s="27"/>
-      <c r="AU24" s="27"/>
-      <c r="AV24" s="27"/>
-      <c r="AW24" s="27"/>
-      <c r="AX24" s="27"/>
-      <c r="AY24" s="27"/>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="27"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="27"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="27"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="27"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="27"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="27"/>
-      <c r="AI25" s="27"/>
-      <c r="AJ25" s="27"/>
-      <c r="AK25" s="27"/>
-      <c r="AL25" s="27"/>
-      <c r="AM25" s="27"/>
-      <c r="AN25" s="27"/>
-      <c r="AO25" s="27"/>
-      <c r="AP25" s="27"/>
-      <c r="AQ25" s="27"/>
-      <c r="AR25" s="27"/>
-      <c r="AS25" s="27"/>
-      <c r="AT25" s="27"/>
-      <c r="AU25" s="27"/>
-      <c r="AV25" s="27"/>
-      <c r="AW25" s="27"/>
-      <c r="AX25" s="27"/>
-      <c r="AY25" s="27"/>
-    </row>
-    <row r="26" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="26" t="s">
+      <c r="C39" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="28"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="28"/>
+      <c r="U39" s="28"/>
+      <c r="V39" s="28"/>
+      <c r="W39" s="28"/>
+      <c r="X39" s="28"/>
+      <c r="Y39" s="28"/>
+      <c r="Z39" s="28"/>
+      <c r="AA39" s="28"/>
+      <c r="AB39" s="28"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="28"/>
+      <c r="AE39" s="28"/>
+      <c r="AF39" s="28"/>
+      <c r="AG39" s="28"/>
+      <c r="AH39" s="28"/>
+      <c r="AI39" s="28"/>
+      <c r="AJ39" s="28"/>
+      <c r="AK39" s="28"/>
+      <c r="AL39" s="28"/>
+      <c r="AM39" s="28"/>
+      <c r="AN39" s="28"/>
+      <c r="AO39" s="28"/>
+      <c r="AP39" s="28"/>
+      <c r="AQ39" s="28"/>
+      <c r="AR39" s="28"/>
+      <c r="AS39" s="28"/>
+      <c r="AT39" s="28"/>
+      <c r="AU39" s="28"/>
+      <c r="AV39" s="28"/>
+      <c r="AW39" s="28"/>
+      <c r="AX39" s="28"/>
+      <c r="AY39" s="28"/>
+    </row>
+    <row r="40" spans="1:51">
+      <c r="A40" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="27"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="27"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="27"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="27"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="27"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="27"/>
-      <c r="AI28" s="27"/>
-      <c r="AJ28" s="27"/>
-      <c r="AK28" s="27"/>
-      <c r="AL28" s="27"/>
-      <c r="AM28" s="27"/>
-      <c r="AN28" s="27"/>
-      <c r="AO28" s="27"/>
-      <c r="AP28" s="27"/>
-      <c r="AQ28" s="27"/>
-      <c r="AR28" s="27"/>
-      <c r="AS28" s="27"/>
-      <c r="AT28" s="27"/>
-      <c r="AU28" s="27"/>
-      <c r="AV28" s="27"/>
-      <c r="AW28" s="27"/>
-      <c r="AX28" s="27"/>
-      <c r="AY28" s="27"/>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
-      <c r="AD29" s="27"/>
-      <c r="AE29" s="27"/>
-      <c r="AF29" s="27"/>
-      <c r="AG29" s="27"/>
-      <c r="AH29" s="27"/>
-      <c r="AI29" s="27"/>
-      <c r="AJ29" s="27"/>
-      <c r="AK29" s="27"/>
-      <c r="AL29" s="27"/>
-      <c r="AM29" s="27"/>
-      <c r="AN29" s="27"/>
-      <c r="AO29" s="27"/>
-      <c r="AP29" s="27"/>
-      <c r="AQ29" s="27"/>
-      <c r="AR29" s="27"/>
-      <c r="AS29" s="27"/>
-      <c r="AT29" s="27"/>
-      <c r="AU29" s="27"/>
-      <c r="AV29" s="27"/>
-      <c r="AW29" s="27"/>
-      <c r="AX29" s="27"/>
-      <c r="AY29" s="27"/>
-    </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
-      <c r="AB30" s="27"/>
-      <c r="AC30" s="27"/>
-      <c r="AD30" s="27"/>
-      <c r="AE30" s="27"/>
-      <c r="AF30" s="27"/>
-      <c r="AG30" s="27"/>
-      <c r="AH30" s="27"/>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="27"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="27"/>
-      <c r="AM30" s="27"/>
-      <c r="AN30" s="27"/>
-      <c r="AO30" s="27"/>
-      <c r="AP30" s="27"/>
-      <c r="AQ30" s="27"/>
-      <c r="AR30" s="27"/>
-      <c r="AS30" s="27"/>
-      <c r="AT30" s="27"/>
-      <c r="AU30" s="27"/>
-      <c r="AV30" s="27"/>
-      <c r="AW30" s="27"/>
-      <c r="AX30" s="27"/>
-      <c r="AY30" s="27"/>
-    </row>
-    <row r="31" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-    </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
-      <c r="X33" s="27"/>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27"/>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27"/>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
-      <c r="AG33" s="27"/>
-      <c r="AH33" s="27"/>
-      <c r="AI33" s="27"/>
-      <c r="AJ33" s="27"/>
-      <c r="AK33" s="27"/>
-      <c r="AL33" s="27"/>
-      <c r="AM33" s="27"/>
-      <c r="AN33" s="27"/>
-      <c r="AO33" s="27"/>
-      <c r="AP33" s="27"/>
-      <c r="AQ33" s="27"/>
-      <c r="AR33" s="27"/>
-      <c r="AS33" s="27"/>
-      <c r="AT33" s="27"/>
-      <c r="AU33" s="27"/>
-      <c r="AV33" s="27"/>
-      <c r="AW33" s="27"/>
-      <c r="AX33" s="27"/>
-      <c r="AY33" s="27"/>
-    </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="27"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="27"/>
-      <c r="R34" s="27"/>
-      <c r="S34" s="27"/>
-      <c r="T34" s="27"/>
-      <c r="U34" s="27"/>
-      <c r="V34" s="27"/>
-      <c r="W34" s="27"/>
-      <c r="X34" s="27"/>
-      <c r="Y34" s="27"/>
-      <c r="Z34" s="27"/>
-      <c r="AA34" s="27"/>
-      <c r="AB34" s="27"/>
-      <c r="AC34" s="27"/>
-      <c r="AD34" s="27"/>
-      <c r="AE34" s="27"/>
-      <c r="AF34" s="27"/>
-      <c r="AG34" s="27"/>
-      <c r="AH34" s="27"/>
-      <c r="AI34" s="27"/>
-      <c r="AJ34" s="27"/>
-      <c r="AK34" s="27"/>
-      <c r="AL34" s="27"/>
-      <c r="AM34" s="27"/>
-      <c r="AN34" s="27"/>
-      <c r="AO34" s="27"/>
-      <c r="AP34" s="27"/>
-      <c r="AQ34" s="27"/>
-      <c r="AR34" s="27"/>
-      <c r="AS34" s="27"/>
-      <c r="AT34" s="27"/>
-      <c r="AU34" s="27"/>
-      <c r="AV34" s="27"/>
-      <c r="AW34" s="27"/>
-      <c r="AX34" s="27"/>
-      <c r="AY34" s="27"/>
-    </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="28"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="28"/>
+      <c r="T40" s="28"/>
+      <c r="U40" s="28"/>
+      <c r="V40" s="28"/>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="28"/>
+      <c r="AM40" s="28"/>
+      <c r="AN40" s="28"/>
+      <c r="AO40" s="28"/>
+      <c r="AP40" s="28"/>
+      <c r="AQ40" s="28"/>
+      <c r="AR40" s="28"/>
+      <c r="AS40" s="28"/>
+      <c r="AT40" s="28"/>
+      <c r="AU40" s="28"/>
+      <c r="AV40" s="28"/>
+      <c r="AW40" s="28"/>
+      <c r="AX40" s="28"/>
+      <c r="AY40" s="28"/>
+    </row>
+    <row r="41" spans="1:51" s="15" customFormat="1">
+      <c r="A41" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="27"/>
-      <c r="S35" s="27"/>
-      <c r="T35" s="27"/>
-      <c r="U35" s="27"/>
-      <c r="V35" s="27"/>
-      <c r="W35" s="27"/>
-      <c r="X35" s="27"/>
-      <c r="Y35" s="27"/>
-      <c r="Z35" s="27"/>
-      <c r="AA35" s="27"/>
-      <c r="AB35" s="27"/>
-      <c r="AC35" s="27"/>
-      <c r="AD35" s="27"/>
-      <c r="AE35" s="27"/>
-      <c r="AF35" s="27"/>
-      <c r="AG35" s="27"/>
-      <c r="AH35" s="27"/>
-      <c r="AI35" s="27"/>
-      <c r="AJ35" s="27"/>
-      <c r="AK35" s="27"/>
-      <c r="AL35" s="27"/>
-      <c r="AM35" s="27"/>
-      <c r="AN35" s="27"/>
-      <c r="AO35" s="27"/>
-      <c r="AP35" s="27"/>
-      <c r="AQ35" s="27"/>
-      <c r="AR35" s="27"/>
-      <c r="AS35" s="27"/>
-      <c r="AT35" s="27"/>
-      <c r="AU35" s="27"/>
-      <c r="AV35" s="27"/>
-      <c r="AW35" s="27"/>
-      <c r="AX35" s="27"/>
-      <c r="AY35" s="27"/>
-    </row>
-    <row r="36" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-    </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="27"/>
-      <c r="S38" s="27"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="27"/>
-      <c r="Y38" s="27"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="27"/>
-      <c r="AE38" s="27"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
-      <c r="AI38" s="27"/>
-      <c r="AJ38" s="27"/>
-      <c r="AK38" s="27"/>
-      <c r="AL38" s="27"/>
-      <c r="AM38" s="27"/>
-      <c r="AN38" s="27"/>
-      <c r="AO38" s="27"/>
-      <c r="AP38" s="27"/>
-      <c r="AQ38" s="27"/>
-      <c r="AR38" s="27"/>
-      <c r="AS38" s="27"/>
-      <c r="AT38" s="27"/>
-      <c r="AU38" s="27"/>
-      <c r="AV38" s="27"/>
-      <c r="AW38" s="27"/>
-      <c r="AX38" s="27"/>
-      <c r="AY38" s="27"/>
-    </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="27"/>
-      <c r="R39" s="27"/>
-      <c r="S39" s="27"/>
-      <c r="T39" s="27"/>
-      <c r="U39" s="27"/>
-      <c r="V39" s="27"/>
-      <c r="W39" s="27"/>
-      <c r="X39" s="27"/>
-      <c r="Y39" s="27"/>
-      <c r="Z39" s="27"/>
-      <c r="AA39" s="27"/>
-      <c r="AB39" s="27"/>
-      <c r="AC39" s="27"/>
-      <c r="AD39" s="27"/>
-      <c r="AE39" s="27"/>
-      <c r="AF39" s="27"/>
-      <c r="AG39" s="27"/>
-      <c r="AH39" s="27"/>
-      <c r="AI39" s="27"/>
-      <c r="AJ39" s="27"/>
-      <c r="AK39" s="27"/>
-      <c r="AL39" s="27"/>
-      <c r="AM39" s="27"/>
-      <c r="AN39" s="27"/>
-      <c r="AO39" s="27"/>
-      <c r="AP39" s="27"/>
-      <c r="AQ39" s="27"/>
-      <c r="AR39" s="27"/>
-      <c r="AS39" s="27"/>
-      <c r="AT39" s="27"/>
-      <c r="AU39" s="27"/>
-      <c r="AV39" s="27"/>
-      <c r="AW39" s="27"/>
-      <c r="AX39" s="27"/>
-      <c r="AY39" s="27"/>
-    </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G40" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="27"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="27"/>
-      <c r="Q40" s="27"/>
-      <c r="R40" s="27"/>
-      <c r="S40" s="27"/>
-      <c r="T40" s="27"/>
-      <c r="U40" s="27"/>
-      <c r="V40" s="27"/>
-      <c r="W40" s="27"/>
-      <c r="X40" s="27"/>
-      <c r="Y40" s="27"/>
-      <c r="Z40" s="27"/>
-      <c r="AA40" s="27"/>
-      <c r="AB40" s="27"/>
-      <c r="AC40" s="27"/>
-      <c r="AD40" s="27"/>
-      <c r="AE40" s="27"/>
-      <c r="AF40" s="27"/>
-      <c r="AG40" s="27"/>
-      <c r="AH40" s="27"/>
-      <c r="AI40" s="27"/>
-      <c r="AJ40" s="27"/>
-      <c r="AK40" s="27"/>
-      <c r="AL40" s="27"/>
-      <c r="AM40" s="27"/>
-      <c r="AN40" s="27"/>
-      <c r="AO40" s="27"/>
-      <c r="AP40" s="27"/>
-      <c r="AQ40" s="27"/>
-      <c r="AR40" s="27"/>
-      <c r="AS40" s="27"/>
-      <c r="AT40" s="27"/>
-      <c r="AU40" s="27"/>
-      <c r="AV40" s="27"/>
-      <c r="AW40" s="27"/>
-      <c r="AX40" s="27"/>
-      <c r="AY40" s="27"/>
-    </row>
-    <row r="41" spans="1:51" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="48"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -3741,15 +3767,15 @@
       <c r="AX41" s="14"/>
       <c r="AY41" s="14"/>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:51">
       <c r="A42" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="32" t="s">
-        <v>105</v>
+        <v>59</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="D42" s="11">
         <f t="shared" si="0"/>
@@ -3766,250 +3792,250 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:51">
       <c r="A43" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>39</v>
+        <v>110</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>110</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G43" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:51">
+      <c r="A44" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="39" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A44" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="26" t="s">
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="28"/>
+      <c r="S44" s="28"/>
+      <c r="T44" s="28"/>
+      <c r="U44" s="28"/>
+      <c r="V44" s="28"/>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="28"/>
+      <c r="AK44" s="28"/>
+      <c r="AL44" s="28"/>
+      <c r="AM44" s="28"/>
+      <c r="AN44" s="28"/>
+      <c r="AO44" s="28"/>
+      <c r="AP44" s="28"/>
+      <c r="AQ44" s="28"/>
+      <c r="AR44" s="28"/>
+      <c r="AS44" s="28"/>
+      <c r="AT44" s="28"/>
+      <c r="AU44" s="28"/>
+      <c r="AV44" s="28"/>
+      <c r="AW44" s="28"/>
+      <c r="AX44" s="28"/>
+      <c r="AY44" s="28"/>
+    </row>
+    <row r="45" spans="1:51">
+      <c r="A45" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="28"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="28"/>
+      <c r="T45" s="28"/>
+      <c r="U45" s="28"/>
+      <c r="V45" s="28"/>
+      <c r="W45" s="28"/>
+      <c r="X45" s="28"/>
+      <c r="Y45" s="28"/>
+      <c r="Z45" s="28"/>
+      <c r="AA45" s="28"/>
+      <c r="AB45" s="28"/>
+      <c r="AC45" s="28"/>
+      <c r="AD45" s="28"/>
+      <c r="AE45" s="28"/>
+      <c r="AF45" s="28"/>
+      <c r="AG45" s="28"/>
+      <c r="AH45" s="28"/>
+      <c r="AI45" s="28"/>
+      <c r="AJ45" s="28"/>
+      <c r="AK45" s="28"/>
+      <c r="AL45" s="28"/>
+      <c r="AM45" s="28"/>
+      <c r="AN45" s="28"/>
+      <c r="AO45" s="28"/>
+      <c r="AP45" s="28"/>
+      <c r="AQ45" s="28"/>
+      <c r="AR45" s="28"/>
+      <c r="AS45" s="28"/>
+      <c r="AT45" s="28"/>
+      <c r="AU45" s="28"/>
+      <c r="AV45" s="28"/>
+      <c r="AW45" s="28"/>
+      <c r="AX45" s="28"/>
+      <c r="AY45" s="28"/>
+    </row>
+    <row r="46" spans="1:51">
+      <c r="A46" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
-      <c r="AA44" s="27"/>
-      <c r="AB44" s="27"/>
-      <c r="AC44" s="27"/>
-      <c r="AD44" s="27"/>
-      <c r="AE44" s="27"/>
-      <c r="AF44" s="27"/>
-      <c r="AG44" s="27"/>
-      <c r="AH44" s="27"/>
-      <c r="AI44" s="27"/>
-      <c r="AJ44" s="27"/>
-      <c r="AK44" s="27"/>
-      <c r="AL44" s="27"/>
-      <c r="AM44" s="27"/>
-      <c r="AN44" s="27"/>
-      <c r="AO44" s="27"/>
-      <c r="AP44" s="27"/>
-      <c r="AQ44" s="27"/>
-      <c r="AR44" s="27"/>
-      <c r="AS44" s="27"/>
-      <c r="AT44" s="27"/>
-      <c r="AU44" s="27"/>
-      <c r="AV44" s="27"/>
-      <c r="AW44" s="27"/>
-      <c r="AX44" s="27"/>
-      <c r="AY44" s="27"/>
-    </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A45" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-      <c r="R45" s="27"/>
-      <c r="S45" s="27"/>
-      <c r="T45" s="27"/>
-      <c r="U45" s="27"/>
-      <c r="V45" s="27"/>
-      <c r="W45" s="27"/>
-      <c r="X45" s="27"/>
-      <c r="Y45" s="27"/>
-      <c r="Z45" s="27"/>
-      <c r="AA45" s="27"/>
-      <c r="AB45" s="27"/>
-      <c r="AC45" s="27"/>
-      <c r="AD45" s="27"/>
-      <c r="AE45" s="27"/>
-      <c r="AF45" s="27"/>
-      <c r="AG45" s="27"/>
-      <c r="AH45" s="27"/>
-      <c r="AI45" s="27"/>
-      <c r="AJ45" s="27"/>
-      <c r="AK45" s="27"/>
-      <c r="AL45" s="27"/>
-      <c r="AM45" s="27"/>
-      <c r="AN45" s="27"/>
-      <c r="AO45" s="27"/>
-      <c r="AP45" s="27"/>
-      <c r="AQ45" s="27"/>
-      <c r="AR45" s="27"/>
-      <c r="AS45" s="27"/>
-      <c r="AT45" s="27"/>
-      <c r="AU45" s="27"/>
-      <c r="AV45" s="27"/>
-      <c r="AW45" s="27"/>
-      <c r="AX45" s="27"/>
-      <c r="AY45" s="27"/>
-    </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="27"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="27"/>
-      <c r="R46" s="27"/>
-      <c r="S46" s="27"/>
-      <c r="T46" s="27"/>
-      <c r="U46" s="27"/>
-      <c r="V46" s="27"/>
-      <c r="W46" s="27"/>
-      <c r="X46" s="27"/>
-      <c r="Y46" s="27"/>
-      <c r="Z46" s="27"/>
-      <c r="AA46" s="27"/>
-      <c r="AB46" s="27"/>
-      <c r="AC46" s="27"/>
-      <c r="AD46" s="27"/>
-      <c r="AE46" s="27"/>
-      <c r="AF46" s="27"/>
-      <c r="AG46" s="27"/>
-      <c r="AH46" s="27"/>
-      <c r="AI46" s="27"/>
-      <c r="AJ46" s="27"/>
-      <c r="AK46" s="27"/>
-      <c r="AL46" s="27"/>
-      <c r="AM46" s="27"/>
-      <c r="AN46" s="27"/>
-      <c r="AO46" s="27"/>
-      <c r="AP46" s="27"/>
-      <c r="AQ46" s="27"/>
-      <c r="AR46" s="27"/>
-      <c r="AS46" s="27"/>
-      <c r="AT46" s="27"/>
-      <c r="AU46" s="27"/>
-      <c r="AV46" s="27"/>
-      <c r="AW46" s="27"/>
-      <c r="AX46" s="27"/>
-      <c r="AY46" s="27"/>
-    </row>
-    <row r="47" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-    </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="28"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="28"/>
+      <c r="T46" s="28"/>
+      <c r="U46" s="28"/>
+      <c r="V46" s="28"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="28"/>
+      <c r="AM46" s="28"/>
+      <c r="AN46" s="28"/>
+      <c r="AO46" s="28"/>
+      <c r="AP46" s="28"/>
+      <c r="AQ46" s="28"/>
+      <c r="AR46" s="28"/>
+      <c r="AS46" s="28"/>
+      <c r="AT46" s="28"/>
+      <c r="AU46" s="28"/>
+      <c r="AV46" s="28"/>
+      <c r="AW46" s="28"/>
+      <c r="AX46" s="28"/>
+      <c r="AY46" s="28"/>
+    </row>
+    <row r="47" spans="1:51">
+      <c r="A47" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="40"/>
+    </row>
+    <row r="48" spans="1:51">
       <c r="A48" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>106</v>
+        <v>65</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="D48" s="11">
         <f t="shared" si="0"/>
@@ -4026,15 +4052,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:51" s="15" customFormat="1">
       <c r="A49" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="33" t="s">
-        <v>107</v>
+      <c r="C49" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="D49" s="11">
         <f t="shared" si="0"/>
@@ -4095,26 +4121,26 @@
       <c r="AX49" s="14"/>
       <c r="AY49" s="14"/>
     </row>
-    <row r="50" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-    </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:51">
+      <c r="A50" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="38"/>
+    </row>
+    <row r="51" spans="1:51">
       <c r="A51" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>109</v>
+        <v>73</v>
+      </c>
+      <c r="B51" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D51" s="11">
         <f t="shared" si="0"/>
@@ -4131,15 +4157,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:51">
       <c r="A52" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B52" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>100</v>
+        <v>70</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="D52" s="11">
         <f t="shared" si="0"/>
@@ -4156,15 +4182,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:51" s="15" customFormat="1">
       <c r="A53" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>108</v>
+      <c r="B53" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="D53" s="11">
         <f t="shared" si="0"/>
@@ -4225,26 +4251,26 @@
       <c r="AX53" s="14"/>
       <c r="AY53" s="14"/>
     </row>
-    <row r="54" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="46"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46"/>
-    </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:51">
+      <c r="A54" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="38"/>
+    </row>
+    <row r="55" spans="1:51">
       <c r="A55" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="32" t="s">
-        <v>109</v>
+        <v>75</v>
+      </c>
+      <c r="B55" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D55" s="11">
         <f t="shared" si="0"/>
@@ -4261,15 +4287,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:51">
       <c r="A56" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>115</v>
+        <v>74</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="D56" s="11">
         <f t="shared" si="0"/>
@@ -4286,15 +4312,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:51" s="15" customFormat="1">
       <c r="A57" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>116</v>
+      <c r="B57" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="D57" s="11">
         <f t="shared" si="0"/>
@@ -4355,26 +4381,26 @@
       <c r="AX57" s="14"/>
       <c r="AY57" s="14"/>
     </row>
-    <row r="58" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-    </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:51">
+      <c r="A58" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="38"/>
+    </row>
+    <row r="59" spans="1:51">
       <c r="A59" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B59" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="32" t="s">
-        <v>99</v>
+        <v>78</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="D59" s="11">
         <f t="shared" si="0"/>
@@ -4391,15 +4417,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:51" s="15" customFormat="1">
       <c r="A60" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>110</v>
+        <v>77</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D60" s="11">
         <f t="shared" si="0"/>
@@ -4460,34 +4486,34 @@
       <c r="AX60" s="14"/>
       <c r="AY60" s="14"/>
     </row>
-    <row r="61" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-    </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:51">
+      <c r="A61" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="38"/>
+    </row>
+    <row r="62" spans="1:51">
       <c r="A62" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B62" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>117</v>
+        <v>86</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>114</v>
       </c>
       <c r="D62" s="11">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E62" s="11">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F62" s="8">
         <v>90</v>
@@ -4496,15 +4522,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:51" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:51" s="15" customFormat="1">
       <c r="A63" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>110</v>
+        <v>80</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="D63" s="11">
         <f t="shared" si="0"/>
@@ -4565,190 +4591,190 @@
       <c r="AX63" s="14"/>
       <c r="AY63" s="14"/>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:51">
       <c r="A64" s="4"/>
       <c r="B64" s="18"/>
-      <c r="C64" s="35"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="4"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="35"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="17"/>
       <c r="E65" s="17"/>
       <c r="F65" s="16"/>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="4"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="35"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="4"/>
       <c r="B67" s="18"/>
-      <c r="C67" s="35"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="17"/>
       <c r="E67" s="17"/>
       <c r="F67" s="16"/>
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="4"/>
       <c r="B68" s="18"/>
-      <c r="C68" s="35"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="36"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
-      <c r="C70" s="37"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="16"/>
       <c r="B71" s="18"/>
-      <c r="C71" s="35"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="16"/>
       <c r="B72" s="21"/>
-      <c r="C72" s="36"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="4"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="35"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="16"/>
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="4"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="35"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
-      <c r="C75" s="37"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="4"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="35"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="4"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="35"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="17"/>
       <c r="E77" s="17"/>
       <c r="F77" s="16"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
-      <c r="C78" s="37"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="4"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="35"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="17"/>
       <c r="E79" s="17"/>
       <c r="F79" s="16"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="4"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="35"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="16"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:51">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
-      <c r="C81" s="37"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
     </row>
-    <row r="82" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:51">
       <c r="A82" s="4"/>
       <c r="B82" s="18"/>
-      <c r="C82" s="35"/>
+      <c r="C82" s="16"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:51">
       <c r="A83" s="4"/>
       <c r="B83" s="18"/>
-      <c r="C83" s="35"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="16"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:51" s="15" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:51" s="15" customFormat="1">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
-      <c r="C84" s="37"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
       <c r="F84" s="20"/>
@@ -4798,708 +4824,627 @@
       <c r="AX84" s="14"/>
       <c r="AY84" s="14"/>
     </row>
-    <row r="85" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:51">
       <c r="A85" s="4"/>
       <c r="B85" s="18"/>
-      <c r="C85" s="35"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="17"/>
       <c r="E85" s="17"/>
       <c r="F85" s="16"/>
       <c r="G85" s="16"/>
     </row>
-    <row r="86" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:51">
       <c r="A86" s="4"/>
       <c r="B86" s="18"/>
-      <c r="C86" s="35"/>
+      <c r="C86" s="16"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17"/>
       <c r="F86" s="16"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:51">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
-      <c r="C87" s="37"/>
+      <c r="C87" s="25"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
     </row>
-    <row r="88" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:51">
       <c r="A88" s="16"/>
       <c r="B88" s="18"/>
-      <c r="C88" s="35"/>
+      <c r="C88" s="16"/>
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:51">
       <c r="A89" s="4"/>
       <c r="B89" s="18"/>
-      <c r="C89" s="35"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="17"/>
       <c r="E89" s="17"/>
       <c r="F89" s="16"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:51">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
-      <c r="C90" s="37"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
     </row>
-    <row r="91" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:51">
       <c r="A91" s="16"/>
       <c r="B91" s="18"/>
-      <c r="C91" s="35"/>
+      <c r="C91" s="16"/>
       <c r="D91" s="17"/>
       <c r="E91" s="17"/>
       <c r="F91" s="16"/>
       <c r="G91" s="16"/>
     </row>
-    <row r="92" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:51">
       <c r="A92" s="4"/>
       <c r="B92" s="18"/>
-      <c r="C92" s="35"/>
+      <c r="C92" s="16"/>
       <c r="D92" s="17"/>
       <c r="E92" s="17"/>
       <c r="F92" s="16"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:51">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
-      <c r="C93" s="37"/>
+      <c r="C93" s="25"/>
       <c r="D93" s="20"/>
       <c r="E93" s="20"/>
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
     </row>
-    <row r="94" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:51">
       <c r="A94" s="16"/>
       <c r="B94" s="18"/>
-      <c r="C94" s="35"/>
+      <c r="C94" s="16"/>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
     </row>
-    <row r="95" spans="1:51" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:51" s="2" customFormat="1">
       <c r="A95" s="4"/>
       <c r="B95" s="18"/>
-      <c r="C95" s="35"/>
+      <c r="C95" s="16"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
       <c r="F95" s="16"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:51" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:51" s="2" customFormat="1">
       <c r="A96" s="20"/>
       <c r="B96" s="20"/>
-      <c r="C96" s="37"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
     </row>
-    <row r="97" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="2" customFormat="1">
       <c r="A97" s="16"/>
       <c r="B97" s="18"/>
-      <c r="C97" s="35"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="17"/>
       <c r="E97" s="17"/>
       <c r="F97" s="16"/>
       <c r="G97" s="16"/>
     </row>
-    <row r="98" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" s="2" customFormat="1">
       <c r="A98" s="4"/>
       <c r="B98" s="18"/>
-      <c r="C98" s="35"/>
+      <c r="C98" s="16"/>
       <c r="D98" s="17"/>
       <c r="E98" s="17"/>
       <c r="F98" s="16"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" s="2" customFormat="1">
       <c r="A99" s="4"/>
       <c r="B99" s="18"/>
-      <c r="C99" s="35"/>
+      <c r="C99" s="16"/>
       <c r="D99" s="17"/>
       <c r="E99" s="17"/>
       <c r="F99" s="16"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" s="2" customFormat="1">
       <c r="A100" s="4"/>
       <c r="B100" s="18"/>
-      <c r="C100" s="35"/>
+      <c r="C100" s="16"/>
       <c r="D100" s="17"/>
       <c r="E100" s="17"/>
       <c r="F100" s="16"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" s="2" customFormat="1">
       <c r="A101" s="4"/>
       <c r="B101" s="18"/>
-      <c r="C101" s="35"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="17"/>
       <c r="E101" s="17"/>
       <c r="F101" s="16"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" s="2" customFormat="1">
       <c r="A102" s="20"/>
       <c r="B102" s="20"/>
-      <c r="C102" s="37"/>
+      <c r="C102" s="25"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
     </row>
-    <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" s="2" customFormat="1">
       <c r="A103" s="16"/>
       <c r="B103" s="18"/>
-      <c r="C103" s="35"/>
+      <c r="C103" s="16"/>
       <c r="D103" s="17"/>
       <c r="E103" s="17"/>
       <c r="F103" s="16"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" s="2" customFormat="1">
       <c r="A104" s="4"/>
       <c r="B104" s="18"/>
-      <c r="C104" s="35"/>
+      <c r="C104" s="16"/>
       <c r="D104" s="17"/>
       <c r="E104" s="17"/>
       <c r="F104" s="16"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" s="2" customFormat="1">
       <c r="A105" s="20"/>
       <c r="B105" s="20"/>
-      <c r="C105" s="37"/>
+      <c r="C105" s="25"/>
       <c r="D105" s="20"/>
       <c r="E105" s="20"/>
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
     </row>
-    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" s="2" customFormat="1">
       <c r="A106" s="16"/>
       <c r="B106" s="18"/>
-      <c r="C106" s="35"/>
+      <c r="C106" s="16"/>
       <c r="D106" s="17"/>
       <c r="E106" s="17"/>
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:7" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" s="2" customFormat="1">
       <c r="A107" s="20"/>
       <c r="B107" s="20"/>
-      <c r="C107" s="37"/>
+      <c r="C107" s="25"/>
       <c r="D107" s="20"/>
       <c r="E107" s="20"/>
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
     </row>
-    <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" s="2" customFormat="1">
       <c r="A108" s="16"/>
       <c r="B108" s="18"/>
-      <c r="C108" s="35"/>
+      <c r="C108" s="16"/>
       <c r="D108" s="17"/>
       <c r="E108" s="17"/>
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" s="2" customFormat="1">
       <c r="A109" s="16"/>
       <c r="B109" s="18"/>
-      <c r="C109" s="35"/>
+      <c r="C109" s="16"/>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
       <c r="F109" s="16"/>
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" s="2" customFormat="1">
       <c r="A110" s="16"/>
       <c r="B110" s="18"/>
-      <c r="C110" s="35"/>
+      <c r="C110" s="16"/>
       <c r="D110" s="17"/>
       <c r="E110" s="17"/>
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C111" s="31"/>
+    <row r="111" spans="1:7" s="2" customFormat="1">
       <c r="D111" s="6"/>
       <c r="E111" s="6"/>
     </row>
-    <row r="112" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C112" s="31"/>
+    <row r="112" spans="1:7" s="2" customFormat="1">
       <c r="D112" s="6"/>
       <c r="E112" s="6"/>
     </row>
-    <row r="113" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C113" s="31"/>
+    <row r="113" spans="1:7" s="2" customFormat="1">
       <c r="D113" s="6"/>
       <c r="E113" s="6"/>
     </row>
-    <row r="114" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C114" s="31"/>
+    <row r="114" spans="1:7" s="2" customFormat="1">
       <c r="D114" s="6"/>
       <c r="E114" s="6"/>
     </row>
-    <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C115" s="31"/>
+    <row r="115" spans="1:7" s="2" customFormat="1">
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
     </row>
-    <row r="116" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C116" s="31"/>
+    <row r="116" spans="1:7" s="2" customFormat="1">
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
     </row>
-    <row r="117" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C117" s="31"/>
+    <row r="117" spans="1:7" s="2" customFormat="1">
       <c r="D117" s="6"/>
       <c r="E117" s="6"/>
     </row>
-    <row r="118" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C118" s="31"/>
+    <row r="118" spans="1:7" s="2" customFormat="1">
       <c r="D118" s="6"/>
       <c r="E118" s="6"/>
     </row>
-    <row r="119" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C119" s="31"/>
+    <row r="119" spans="1:7" s="2" customFormat="1">
       <c r="D119" s="6"/>
       <c r="E119" s="6"/>
     </row>
-    <row r="120" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="31"/>
+    <row r="120" spans="1:7" s="2" customFormat="1">
       <c r="D120" s="6"/>
       <c r="E120" s="6"/>
     </row>
-    <row r="121" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C121" s="31"/>
+    <row r="121" spans="1:7" s="2" customFormat="1">
       <c r="D121" s="6"/>
       <c r="E121" s="6"/>
     </row>
-    <row r="122" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C122" s="31"/>
+    <row r="122" spans="1:7" s="2" customFormat="1">
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C123" s="31"/>
+    <row r="123" spans="1:7" s="2" customFormat="1">
       <c r="D123" s="6"/>
       <c r="E123" s="6"/>
     </row>
-    <row r="124" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C124" s="31"/>
+    <row r="124" spans="1:7" s="2" customFormat="1">
       <c r="D124" s="6"/>
       <c r="E124" s="6"/>
     </row>
-    <row r="125" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C125" s="31"/>
+    <row r="125" spans="1:7" s="2" customFormat="1">
       <c r="D125" s="6"/>
       <c r="E125" s="6"/>
     </row>
-    <row r="126" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C126" s="31"/>
+    <row r="126" spans="1:7" s="2" customFormat="1">
       <c r="D126" s="6"/>
       <c r="E126" s="6"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="31"/>
+      <c r="C127" s="2"/>
       <c r="D127" s="6"/>
       <c r="E127" s="6"/>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="31"/>
+      <c r="C128" s="2"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="31"/>
+      <c r="C129" s="2"/>
       <c r="D129" s="6"/>
       <c r="E129" s="6"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="31"/>
+      <c r="C130" s="2"/>
       <c r="D130" s="6"/>
       <c r="E130" s="6"/>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
     </row>
-    <row r="131" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C131" s="31"/>
+    <row r="131" spans="1:7" s="2" customFormat="1">
       <c r="D131" s="6"/>
       <c r="E131" s="6"/>
     </row>
-    <row r="132" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C132" s="31"/>
+    <row r="132" spans="1:7" s="2" customFormat="1">
       <c r="D132" s="6"/>
       <c r="E132" s="6"/>
     </row>
-    <row r="133" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C133" s="31"/>
+    <row r="133" spans="1:7" s="2" customFormat="1">
       <c r="D133" s="6"/>
       <c r="E133" s="6"/>
     </row>
-    <row r="134" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C134" s="31"/>
+    <row r="134" spans="1:7" s="2" customFormat="1">
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C135" s="31"/>
+    <row r="135" spans="1:7" s="2" customFormat="1">
       <c r="D135" s="6"/>
       <c r="E135" s="6"/>
     </row>
-    <row r="136" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C136" s="31"/>
+    <row r="136" spans="1:7" s="2" customFormat="1">
       <c r="D136" s="6"/>
       <c r="E136" s="6"/>
     </row>
-    <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C137" s="31"/>
+    <row r="137" spans="1:7" s="2" customFormat="1">
       <c r="D137" s="6"/>
       <c r="E137" s="6"/>
     </row>
-    <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C138" s="31"/>
+    <row r="138" spans="1:7" s="2" customFormat="1">
       <c r="D138" s="6"/>
       <c r="E138" s="6"/>
     </row>
-    <row r="139" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C139" s="31"/>
+    <row r="139" spans="1:7" s="2" customFormat="1">
       <c r="D139" s="6"/>
       <c r="E139" s="6"/>
     </row>
-    <row r="140" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C140" s="31"/>
+    <row r="140" spans="1:7" s="2" customFormat="1">
       <c r="D140" s="6"/>
       <c r="E140" s="6"/>
     </row>
-    <row r="141" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C141" s="31"/>
+    <row r="141" spans="1:7" s="2" customFormat="1">
       <c r="D141" s="6"/>
       <c r="E141" s="6"/>
     </row>
-    <row r="142" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C142" s="31"/>
+    <row r="142" spans="1:7" s="2" customFormat="1">
       <c r="D142" s="6"/>
       <c r="E142" s="6"/>
     </row>
-    <row r="143" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C143" s="31"/>
+    <row r="143" spans="1:7" s="2" customFormat="1">
       <c r="D143" s="6"/>
       <c r="E143" s="6"/>
     </row>
-    <row r="144" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C144" s="31"/>
+    <row r="144" spans="1:7" s="2" customFormat="1">
       <c r="D144" s="6"/>
       <c r="E144" s="6"/>
     </row>
-    <row r="145" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C145" s="31"/>
+    <row r="145" spans="4:5" s="2" customFormat="1">
       <c r="D145" s="6"/>
       <c r="E145" s="6"/>
     </row>
-    <row r="146" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C146" s="31"/>
+    <row r="146" spans="4:5" s="2" customFormat="1">
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C147" s="31"/>
+    <row r="147" spans="4:5" s="2" customFormat="1">
       <c r="D147" s="6"/>
       <c r="E147" s="6"/>
     </row>
-    <row r="148" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C148" s="31"/>
+    <row r="148" spans="4:5" s="2" customFormat="1">
       <c r="D148" s="6"/>
       <c r="E148" s="6"/>
     </row>
-    <row r="149" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C149" s="31"/>
+    <row r="149" spans="4:5" s="2" customFormat="1">
       <c r="D149" s="6"/>
       <c r="E149" s="6"/>
     </row>
-    <row r="150" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C150" s="31"/>
+    <row r="150" spans="4:5" s="2" customFormat="1">
       <c r="D150" s="6"/>
       <c r="E150" s="6"/>
     </row>
-    <row r="151" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C151" s="31"/>
+    <row r="151" spans="4:5" s="2" customFormat="1">
       <c r="D151" s="6"/>
       <c r="E151" s="6"/>
     </row>
-    <row r="152" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C152" s="31"/>
+    <row r="152" spans="4:5" s="2" customFormat="1">
       <c r="D152" s="6"/>
       <c r="E152" s="6"/>
     </row>
-    <row r="153" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C153" s="31"/>
+    <row r="153" spans="4:5" s="2" customFormat="1">
       <c r="D153" s="6"/>
       <c r="E153" s="6"/>
     </row>
-    <row r="154" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C154" s="31"/>
+    <row r="154" spans="4:5" s="2" customFormat="1">
       <c r="D154" s="6"/>
       <c r="E154" s="6"/>
     </row>
-    <row r="155" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C155" s="31"/>
+    <row r="155" spans="4:5" s="2" customFormat="1">
       <c r="D155" s="6"/>
       <c r="E155" s="6"/>
     </row>
-    <row r="156" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C156" s="31"/>
+    <row r="156" spans="4:5" s="2" customFormat="1">
       <c r="D156" s="6"/>
       <c r="E156" s="6"/>
     </row>
-    <row r="157" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C157" s="31"/>
+    <row r="157" spans="4:5" s="2" customFormat="1">
       <c r="D157" s="6"/>
       <c r="E157" s="6"/>
     </row>
-    <row r="158" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C158" s="31"/>
+    <row r="158" spans="4:5" s="2" customFormat="1">
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C159" s="31"/>
+    <row r="159" spans="4:5" s="2" customFormat="1">
       <c r="D159" s="6"/>
       <c r="E159" s="6"/>
     </row>
-    <row r="160" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C160" s="31"/>
+    <row r="160" spans="4:5" s="2" customFormat="1">
       <c r="D160" s="6"/>
       <c r="E160" s="6"/>
     </row>
-    <row r="161" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C161" s="31"/>
+    <row r="161" spans="4:5" s="2" customFormat="1">
       <c r="D161" s="6"/>
       <c r="E161" s="6"/>
     </row>
-    <row r="162" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C162" s="31"/>
+    <row r="162" spans="4:5" s="2" customFormat="1">
       <c r="D162" s="6"/>
       <c r="E162" s="6"/>
     </row>
-    <row r="163" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C163" s="31"/>
+    <row r="163" spans="4:5" s="2" customFormat="1">
       <c r="D163" s="6"/>
       <c r="E163" s="6"/>
     </row>
-    <row r="164" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C164" s="31"/>
+    <row r="164" spans="4:5" s="2" customFormat="1">
       <c r="D164" s="6"/>
       <c r="E164" s="6"/>
     </row>
-    <row r="165" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C165" s="31"/>
+    <row r="165" spans="4:5" s="2" customFormat="1">
       <c r="D165" s="6"/>
       <c r="E165" s="6"/>
     </row>
-    <row r="166" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C166" s="31"/>
+    <row r="166" spans="4:5" s="2" customFormat="1">
       <c r="D166" s="6"/>
       <c r="E166" s="6"/>
     </row>
-    <row r="167" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C167" s="31"/>
+    <row r="167" spans="4:5" s="2" customFormat="1">
       <c r="D167" s="6"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C168" s="31"/>
+    <row r="168" spans="4:5" s="2" customFormat="1">
       <c r="D168" s="6"/>
       <c r="E168" s="6"/>
     </row>
-    <row r="169" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C169" s="31"/>
+    <row r="169" spans="4:5" s="2" customFormat="1">
       <c r="D169" s="6"/>
       <c r="E169" s="6"/>
     </row>
-    <row r="170" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C170" s="31"/>
+    <row r="170" spans="4:5" s="2" customFormat="1">
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C171" s="31"/>
+    <row r="171" spans="4:5" s="2" customFormat="1">
       <c r="D171" s="6"/>
       <c r="E171" s="6"/>
     </row>
-    <row r="172" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C172" s="31"/>
+    <row r="172" spans="4:5" s="2" customFormat="1">
       <c r="D172" s="6"/>
       <c r="E172" s="6"/>
     </row>
-    <row r="173" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C173" s="31"/>
+    <row r="173" spans="4:5" s="2" customFormat="1">
       <c r="D173" s="6"/>
       <c r="E173" s="6"/>
     </row>
-    <row r="174" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C174" s="31"/>
+    <row r="174" spans="4:5" s="2" customFormat="1">
       <c r="D174" s="6"/>
       <c r="E174" s="6"/>
     </row>
-    <row r="175" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C175" s="31"/>
+    <row r="175" spans="4:5" s="2" customFormat="1">
       <c r="D175" s="6"/>
       <c r="E175" s="6"/>
     </row>
-    <row r="176" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C176" s="31"/>
+    <row r="176" spans="4:5" s="2" customFormat="1">
       <c r="D176" s="6"/>
       <c r="E176" s="6"/>
     </row>
-    <row r="177" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C177" s="31"/>
+    <row r="177" spans="4:5" s="2" customFormat="1">
       <c r="D177" s="6"/>
       <c r="E177" s="6"/>
     </row>
-    <row r="178" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C178" s="31"/>
+    <row r="178" spans="4:5" s="2" customFormat="1">
       <c r="D178" s="6"/>
       <c r="E178" s="6"/>
     </row>
-    <row r="179" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C179" s="31"/>
+    <row r="179" spans="4:5" s="2" customFormat="1">
       <c r="D179" s="6"/>
       <c r="E179" s="6"/>
     </row>
-    <row r="180" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C180" s="31"/>
+    <row r="180" spans="4:5" s="2" customFormat="1">
       <c r="D180" s="6"/>
       <c r="E180" s="6"/>
     </row>
-    <row r="181" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C181" s="31"/>
+    <row r="181" spans="4:5" s="2" customFormat="1">
       <c r="D181" s="6"/>
       <c r="E181" s="6"/>
     </row>
-    <row r="182" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C182" s="31"/>
+    <row r="182" spans="4:5" s="2" customFormat="1">
       <c r="D182" s="6"/>
       <c r="E182" s="6"/>
     </row>
-    <row r="183" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C183" s="31"/>
+    <row r="183" spans="4:5" s="2" customFormat="1">
       <c r="D183" s="6"/>
       <c r="E183" s="6"/>
     </row>
-    <row r="184" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C184" s="31"/>
+    <row r="184" spans="4:5" s="2" customFormat="1">
       <c r="D184" s="6"/>
       <c r="E184" s="6"/>
     </row>
-    <row r="185" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C185" s="31"/>
+    <row r="185" spans="4:5" s="2" customFormat="1">
       <c r="D185" s="6"/>
       <c r="E185" s="6"/>
     </row>
-    <row r="186" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C186" s="31"/>
+    <row r="186" spans="4:5" s="2" customFormat="1">
       <c r="D186" s="6"/>
       <c r="E186" s="6"/>
     </row>
-    <row r="187" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C187" s="31"/>
+    <row r="187" spans="4:5" s="2" customFormat="1">
       <c r="D187" s="6"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C188" s="31"/>
+    <row r="188" spans="4:5" s="2" customFormat="1">
       <c r="D188" s="6"/>
       <c r="E188" s="6"/>
     </row>
-    <row r="189" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C189" s="31"/>
+    <row r="189" spans="4:5" s="2" customFormat="1">
       <c r="D189" s="6"/>
       <c r="E189" s="6"/>
     </row>
-    <row r="190" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C190" s="31"/>
+    <row r="190" spans="4:5" s="2" customFormat="1">
       <c r="D190" s="6"/>
       <c r="E190" s="6"/>
     </row>
-    <row r="191" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C191" s="31"/>
+    <row r="191" spans="4:5" s="2" customFormat="1">
       <c r="D191" s="6"/>
       <c r="E191" s="6"/>
     </row>
-    <row r="192" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C192" s="31"/>
+    <row r="192" spans="4:5" s="2" customFormat="1">
       <c r="D192" s="6"/>
       <c r="E192" s="6"/>
     </row>
-    <row r="193" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C193" s="31"/>
+    <row r="193" spans="4:5" s="2" customFormat="1">
       <c r="D193" s="6"/>
       <c r="E193" s="6"/>
     </row>
-    <row r="194" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C194" s="31"/>
+    <row r="194" spans="4:5" s="2" customFormat="1">
       <c r="D194" s="6"/>
       <c r="E194" s="6"/>
     </row>
-    <row r="195" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C195" s="31"/>
+    <row r="195" spans="4:5" s="2" customFormat="1">
       <c r="D195" s="6"/>
       <c r="E195" s="6"/>
     </row>
-    <row r="196" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C196" s="31"/>
+    <row r="196" spans="4:5" s="2" customFormat="1">
       <c r="D196" s="6"/>
       <c r="E196" s="6"/>
     </row>
-    <row r="197" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C197" s="31"/>
+    <row r="197" spans="4:5" s="2" customFormat="1">
       <c r="D197" s="6"/>
       <c r="E197" s="6"/>
     </row>
-    <row r="198" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C198" s="31"/>
+    <row r="198" spans="4:5" s="2" customFormat="1">
       <c r="D198" s="6"/>
       <c r="E198" s="6"/>
     </row>
-    <row r="199" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C199" s="31"/>
+    <row r="199" spans="4:5" s="2" customFormat="1">
       <c r="D199" s="6"/>
       <c r="E199" s="6"/>
     </row>
-    <row r="200" spans="3:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C200" s="31"/>
+    <row r="200" spans="4:5" s="2" customFormat="1">
       <c r="D200" s="6"/>
       <c r="E200" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A26:G26"/>
     <mergeCell ref="A54:G54"/>
     <mergeCell ref="A58:G58"/>
     <mergeCell ref="A61:G61"/>
@@ -5508,14 +5453,9 @@
     <mergeCell ref="A41:G41"/>
     <mergeCell ref="A47:G47"/>
     <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A26:G26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
